--- a/Data_Wordle_All_Features.xlsx
+++ b/Data_Wordle_All_Features.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
-    <sheet name="New" sheetId="1" r:id="rId1"/>
+    <sheet name="Data_Wordle_All_Features" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -2933,12 +2933,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -3547,7 +3546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3872,16 +3871,16 @@
   <dimension ref="A1:AA473"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.8888888888889" style="1"/>
+    <col min="1" max="1" width="11.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
